--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>184656.3881560334</v>
+        <v>184220.0724815861</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218615.8834996857</v>
+        <v>218615.8834996853</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>271.1969048723737</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>140.6342961369298</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -741,16 +741,16 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>124.1879636018438</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
@@ -798,13 +798,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>4.511681279734848</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>75.70979597531159</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>31.87115035534897</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>259.1370907000513</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>354.3782066404775</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>123.2729082483801</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -1026,10 +1026,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>87.31073682124077</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -1105,7 +1105,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>84.31882417064587</v>
+        <v>86.2260483595458</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>306.8033197041142</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -1181,7 +1181,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>82.06377944790343</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
@@ -1227,7 +1227,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>39.41620690427824</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1278,7 +1278,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>86.89088639877551</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>27.5953964434745</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,22 +1370,22 @@
         <v>298.2086467078061</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>286.2199636654878</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>298.9434052799213</v>
+        <v>22.45580239446076</v>
       </c>
       <c r="F11" t="n">
-        <v>318.1152213678985</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>320.048489265321</v>
       </c>
       <c r="H11" t="n">
-        <v>226.9277231106472</v>
+        <v>237.5986042436309</v>
       </c>
       <c r="I11" t="n">
         <v>79.19456938825904</v>
@@ -1436,7 +1436,7 @@
         <v>286.3153816586887</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>297.7119794548875</v>
       </c>
     </row>
     <row r="12">
@@ -1458,7 +1458,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841207</v>
       </c>
       <c r="G12" t="n">
         <v>127.4412149769483</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
@@ -1528,19 +1528,19 @@
         <v>89.82535758250312</v>
       </c>
       <c r="C13" t="n">
-        <v>76.0253524279036</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>33.10920382700334</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>58.59446668126144</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>75.33609373079558</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>56.13210615673266</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>119.6782075553164</v>
       </c>
       <c r="T13" t="n">
         <v>138.9527062374451</v>
@@ -1588,13 +1588,13 @@
         <v>166.2334939821287</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>191.400380052742</v>
       </c>
       <c r="X13" t="n">
         <v>137.0454820485451</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.9203498046128</v>
+        <v>59.90687886351829</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>286.2199636654877</v>
       </c>
       <c r="D14" t="n">
-        <v>277.2012677100157</v>
+        <v>114.3224476394442</v>
       </c>
       <c r="E14" t="n">
         <v>298.9434052799213</v>
       </c>
       <c r="F14" t="n">
-        <v>318.1152213678984</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>320.0484892653209</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>237.5986042436309</v>
       </c>
       <c r="I14" t="n">
-        <v>79.19456938825901</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.46222820091664</v>
+        <v>93.46222820091663</v>
       </c>
       <c r="T14" t="n">
-        <v>102.379282595532</v>
+        <v>130.220899391266</v>
       </c>
       <c r="U14" t="n">
-        <v>160.442025508113</v>
+        <v>160.4420255081129</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.7150239479851</v>
       </c>
       <c r="W14" t="n">
-        <v>267.015123425942</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1698,13 +1698,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>112.8757236914445</v>
       </c>
       <c r="H15" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>53.13297117133636</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>89.82535758250307</v>
       </c>
       <c r="C16" t="n">
-        <v>76.02535242790357</v>
+        <v>76.02535242790356</v>
       </c>
       <c r="D16" t="n">
-        <v>59.64671682548196</v>
+        <v>59.64671682548195</v>
       </c>
       <c r="E16" t="n">
-        <v>58.59446668126141</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>59.06139100944772</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>75.33609373079555</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>21.59372806780544</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.13210615673263</v>
+        <v>56.13210615673262</v>
       </c>
       <c r="S16" t="n">
         <v>119.6782075553164</v>
@@ -1825,13 +1825,13 @@
         <v>166.2334939821287</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>115.6351896628753</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>137.045482048545</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.9203498046127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1926,7 +1926,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>122.8847593541863</v>
       </c>
       <c r="E18" t="n">
         <v>145.5577298436975</v>
@@ -1986,7 +1986,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
-        <v>181.3723269554795</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
         <v>190.5961130869169</v>
@@ -2090,7 +2090,7 @@
         <v>224.7087975524973</v>
       </c>
       <c r="F20" t="n">
-        <v>243.8806136404744</v>
+        <v>243.8806136404751</v>
       </c>
       <c r="G20" t="n">
         <v>245.8138815378969</v>
@@ -2144,7 +2144,7 @@
         <v>192.780515698518</v>
       </c>
       <c r="X20" t="n">
-        <v>212.080773931265</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y20" t="n">
         <v>223.4773717274634</v>
@@ -2175,7 +2175,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326521</v>
       </c>
       <c r="I21" t="n">
         <v>67.69846245683961</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
@@ -2409,7 +2409,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>112.8757236914445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
         <v>98.93847887876893</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>261.4420352612604</v>
+        <v>261.4420352612605</v>
       </c>
       <c r="C26" t="n">
-        <v>249.4533522189421</v>
+        <v>249.4533522189422</v>
       </c>
       <c r="D26" t="n">
         <v>240.4346562634701</v>
@@ -2573,7 +2573,7 @@
         <v>200.8319927970853</v>
       </c>
       <c r="I26" t="n">
-        <v>42.4279579417134</v>
+        <v>42.42795794171343</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.69561675437103</v>
+        <v>56.69561675437106</v>
       </c>
       <c r="T26" t="n">
-        <v>93.45428794472039</v>
+        <v>93.45428794472042</v>
       </c>
       <c r="U26" t="n">
         <v>123.6754140615674</v>
@@ -2615,10 +2615,10 @@
         <v>204.9484125014395</v>
       </c>
       <c r="W26" t="n">
-        <v>230.2485119793964</v>
+        <v>230.2485119793965</v>
       </c>
       <c r="X26" t="n">
-        <v>249.548770212143</v>
+        <v>249.5487702121431</v>
       </c>
       <c r="Y26" t="n">
         <v>260.9453680083418</v>
@@ -2637,7 +2637,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D27" t="n">
-        <v>137.45025063969</v>
+        <v>122.8847593541866</v>
       </c>
       <c r="E27" t="n">
         <v>145.5577298436975</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.05874613595748</v>
+        <v>53.05874613595751</v>
       </c>
       <c r="C28" t="n">
-        <v>39.25874098135796</v>
+        <v>39.25874098135799</v>
       </c>
       <c r="D28" t="n">
-        <v>22.88010537893635</v>
+        <v>22.88010537893638</v>
       </c>
       <c r="E28" t="n">
-        <v>21.8278552347158</v>
+        <v>21.82785523471583</v>
       </c>
       <c r="F28" t="n">
-        <v>22.29477956290211</v>
+        <v>22.29477956290214</v>
       </c>
       <c r="G28" t="n">
-        <v>38.56948228424994</v>
+        <v>38.56948228424997</v>
       </c>
       <c r="H28" t="n">
-        <v>29.11784990694036</v>
+        <v>29.11784990694039</v>
       </c>
       <c r="I28" t="n">
-        <v>14.09994509176971</v>
+        <v>14.09994509176974</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.36549471018702</v>
+        <v>19.36549471018705</v>
       </c>
       <c r="S28" t="n">
-        <v>82.91159610877077</v>
+        <v>82.91159610877079</v>
       </c>
       <c r="T28" t="n">
         <v>102.1860947908994</v>
@@ -2773,13 +2773,13 @@
         <v>129.4668825355831</v>
       </c>
       <c r="W28" t="n">
-        <v>154.6337686061963</v>
+        <v>154.6337686061964</v>
       </c>
       <c r="X28" t="n">
-        <v>100.2788706019994</v>
+        <v>100.2788706019995</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.15373835806713</v>
+        <v>91.15373835806716</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>261.4420352612603</v>
+        <v>261.4420352612605</v>
       </c>
       <c r="C29" t="n">
-        <v>249.4533522189421</v>
+        <v>249.4533522189422</v>
       </c>
       <c r="D29" t="n">
         <v>240.4346562634701</v>
@@ -2807,10 +2807,10 @@
         <v>283.2818778187753</v>
       </c>
       <c r="H29" t="n">
-        <v>200.8319927970852</v>
+        <v>200.8319927970853</v>
       </c>
       <c r="I29" t="n">
-        <v>42.42795794171337</v>
+        <v>42.42795794171343</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>56.695616754371</v>
+        <v>56.69561675437106</v>
       </c>
       <c r="T29" t="n">
-        <v>93.45428794472036</v>
+        <v>93.45428794472042</v>
       </c>
       <c r="U29" t="n">
-        <v>123.6754140615673</v>
+        <v>123.6754140615674</v>
       </c>
       <c r="V29" t="n">
         <v>204.9484125014395</v>
       </c>
       <c r="W29" t="n">
-        <v>230.2485119793964</v>
+        <v>230.2485119793965</v>
       </c>
       <c r="X29" t="n">
-        <v>249.548770212143</v>
+        <v>249.5487702121431</v>
       </c>
       <c r="Y29" t="n">
         <v>260.9453680083418</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.05874613595745</v>
+        <v>53.05874613595751</v>
       </c>
       <c r="C31" t="n">
-        <v>39.25874098135793</v>
+        <v>39.25874098135799</v>
       </c>
       <c r="D31" t="n">
-        <v>22.88010537893632</v>
+        <v>22.88010537893638</v>
       </c>
       <c r="E31" t="n">
-        <v>21.82785523471577</v>
+        <v>21.82785523471583</v>
       </c>
       <c r="F31" t="n">
-        <v>22.29477956290208</v>
+        <v>22.29477956290214</v>
       </c>
       <c r="G31" t="n">
-        <v>38.56948228424991</v>
+        <v>38.56948228424997</v>
       </c>
       <c r="H31" t="n">
-        <v>29.11784990694034</v>
+        <v>29.11784990694039</v>
       </c>
       <c r="I31" t="n">
-        <v>14.09994509176968</v>
+        <v>14.09994509176974</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.36549471018699</v>
+        <v>19.36549471018705</v>
       </c>
       <c r="S31" t="n">
-        <v>82.91159610877074</v>
+        <v>82.91159610877079</v>
       </c>
       <c r="T31" t="n">
         <v>102.1860947908994</v>
       </c>
       <c r="U31" t="n">
-        <v>155.6572682542125</v>
+        <v>155.6572682542126</v>
       </c>
       <c r="V31" t="n">
-        <v>129.466882535583</v>
+        <v>129.4668825355831</v>
       </c>
       <c r="W31" t="n">
-        <v>154.6337686061963</v>
+        <v>154.6337686061964</v>
       </c>
       <c r="X31" t="n">
-        <v>100.2788706019994</v>
+        <v>100.2788706019995</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.1537383580671</v>
+        <v>91.15373835806716</v>
       </c>
     </row>
     <row r="32">
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>253.327175636089</v>
+        <v>253.3271756360891</v>
       </c>
       <c r="C32" t="n">
         <v>241.3384925937708</v>
       </c>
       <c r="D32" t="n">
-        <v>232.3197966382987</v>
+        <v>232.3197966382988</v>
       </c>
       <c r="E32" t="n">
         <v>254.0619342082043</v>
       </c>
       <c r="F32" t="n">
-        <v>273.2337502961814</v>
+        <v>273.2337502961815</v>
       </c>
       <c r="G32" t="n">
         <v>275.167018193604</v>
@@ -3047,7 +3047,7 @@
         <v>192.7171331719139</v>
       </c>
       <c r="I32" t="n">
-        <v>34.31309831654201</v>
+        <v>34.31309831654207</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.58075712919964</v>
+        <v>48.5807571291997</v>
       </c>
       <c r="T32" t="n">
-        <v>85.339428319549</v>
+        <v>85.33942831954906</v>
       </c>
       <c r="U32" t="n">
         <v>115.560554436396</v>
       </c>
       <c r="V32" t="n">
-        <v>196.8335528762681</v>
+        <v>196.8335528762682</v>
       </c>
       <c r="W32" t="n">
-        <v>222.133652354225</v>
+        <v>222.1336523542251</v>
       </c>
       <c r="X32" t="n">
-        <v>241.4339105869716</v>
+        <v>241.4339105869717</v>
       </c>
       <c r="Y32" t="n">
-        <v>252.8305083831704</v>
+        <v>252.8305083831705</v>
       </c>
     </row>
     <row r="33">
@@ -3114,7 +3114,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E33" t="n">
-        <v>145.5577298436975</v>
+        <v>130.9922385581941</v>
       </c>
       <c r="F33" t="n">
         <v>133.3468600696244</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.94388651078609</v>
+        <v>44.94388651078614</v>
       </c>
       <c r="C34" t="n">
-        <v>31.14388135618657</v>
+        <v>31.14388135618663</v>
       </c>
       <c r="D34" t="n">
-        <v>14.76524575376496</v>
+        <v>14.76524575376502</v>
       </c>
       <c r="E34" t="n">
-        <v>13.71299560954441</v>
+        <v>13.71299560954446</v>
       </c>
       <c r="F34" t="n">
-        <v>14.17991993773072</v>
+        <v>14.17991993773077</v>
       </c>
       <c r="G34" t="n">
-        <v>30.45462265907855</v>
+        <v>30.45462265907861</v>
       </c>
       <c r="H34" t="n">
-        <v>21.00299028176897</v>
+        <v>21.00299028176903</v>
       </c>
       <c r="I34" t="n">
-        <v>5.985085466598321</v>
+        <v>5.985085466598377</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>11.25063508501563</v>
+        <v>11.25063508501569</v>
       </c>
       <c r="S34" t="n">
-        <v>74.79673648359937</v>
+        <v>74.79673648359943</v>
       </c>
       <c r="T34" t="n">
-        <v>94.07123516572801</v>
+        <v>94.07123516572807</v>
       </c>
       <c r="U34" t="n">
         <v>147.5424086290412</v>
@@ -3247,13 +3247,13 @@
         <v>121.3520229104117</v>
       </c>
       <c r="W34" t="n">
-        <v>146.5189089810249</v>
+        <v>146.518908981025</v>
       </c>
       <c r="X34" t="n">
-        <v>92.16401097682805</v>
+        <v>92.16401097682811</v>
       </c>
       <c r="Y34" t="n">
-        <v>83.03887873289574</v>
+        <v>83.0388787328958</v>
       </c>
     </row>
     <row r="35">
@@ -3360,7 +3360,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326565</v>
       </c>
       <c r="I36" t="n">
         <v>67.69846245683961</v>
@@ -3396,7 +3396,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T36" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U36" t="n">
         <v>216.3098444776729</v>
@@ -3594,10 +3594,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>127.4412149769483</v>
+        <v>112.875723691445</v>
       </c>
       <c r="H39" t="n">
-        <v>84.37298759326568</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
         <v>67.69846245683961</v>
@@ -3837,7 +3837,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>53.13297117133634</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>223.974038980382</v>
+        <v>223.9740389803821</v>
       </c>
       <c r="C44" t="n">
         <v>211.9853559380638</v>
@@ -3995,7 +3995,7 @@
         <v>163.3639965162069</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835035</v>
+        <v>4.959961660835063</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349266</v>
+        <v>19.22762047349269</v>
       </c>
       <c r="T44" t="n">
-        <v>55.98629166384202</v>
+        <v>55.98629166384205</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068898</v>
+        <v>86.20741778068901</v>
       </c>
       <c r="V44" t="n">
         <v>167.4804162205612</v>
@@ -4043,7 +4043,7 @@
         <v>212.0807739312647</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.4773717274634</v>
+        <v>223.4773717274635</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>53.13297117133634</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
-        <v>186.7982527956746</v>
+        <v>172.2327615101711</v>
       </c>
       <c r="U45" t="n">
         <v>216.3098444776729</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507911</v>
+        <v>15.59074985507914</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479593</v>
+        <v>1.790744700479621</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371576</v>
+        <v>1.101486003371605</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.4435998278924</v>
+        <v>45.44359982789243</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002104</v>
+        <v>64.71809851002106</v>
       </c>
       <c r="U46" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V46" t="n">
-        <v>91.9988862547047</v>
+        <v>91.99888625470473</v>
       </c>
       <c r="W46" t="n">
         <v>117.165772325318</v>
       </c>
       <c r="X46" t="n">
-        <v>62.81087432112108</v>
+        <v>62.8108743211211</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718876</v>
+        <v>53.68574207718879</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>869.7702003049387</v>
+        <v>658.3361475252481</v>
       </c>
       <c r="C2" t="n">
-        <v>869.7702003049387</v>
+        <v>658.3361475252481</v>
       </c>
       <c r="D2" t="n">
-        <v>869.7702003049387</v>
+        <v>658.3361475252481</v>
       </c>
       <c r="E2" t="n">
-        <v>869.7702003049387</v>
+        <v>658.3361475252481</v>
       </c>
       <c r="F2" t="n">
-        <v>455.6190096151091</v>
+        <v>384.3998799773958</v>
       </c>
       <c r="G2" t="n">
-        <v>39.51502306929713</v>
+        <v>372.3362974719878</v>
       </c>
       <c r="H2" t="n">
         <v>39.51502306929713</v>
@@ -4343,37 +4343,37 @@
         <v>1471.109837412635</v>
       </c>
       <c r="O2" t="n">
-        <v>1747.594257008803</v>
+        <v>1776.114421885469</v>
       </c>
       <c r="P2" t="n">
-        <v>1975.751153464857</v>
+        <v>1881.31889977832</v>
       </c>
       <c r="Q2" t="n">
         <v>1975.751153464857</v>
       </c>
       <c r="R2" t="n">
-        <v>1885.11286696071</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="S2" t="n">
-        <v>1885.11286696071</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="T2" t="n">
-        <v>1660.753920691721</v>
+        <v>1751.392207195868</v>
       </c>
       <c r="U2" t="n">
-        <v>1405.868584405715</v>
+        <v>1751.392207195868</v>
       </c>
       <c r="V2" t="n">
-        <v>1405.868584405715</v>
+        <v>1414.412933091809</v>
       </c>
       <c r="W2" t="n">
-        <v>1263.813739822958</v>
+        <v>1051.87800294941</v>
       </c>
       <c r="X2" t="n">
-        <v>1263.813739822958</v>
+        <v>1051.87800294941</v>
       </c>
       <c r="Y2" t="n">
-        <v>1263.813739822958</v>
+        <v>658.3361475252481</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>915.5416710712357</v>
+        <v>632.9611366184245</v>
       </c>
       <c r="C3" t="n">
-        <v>753.8379983121904</v>
+        <v>471.2574638593792</v>
       </c>
       <c r="D3" t="n">
-        <v>614.9993613024025</v>
+        <v>471.2574638593792</v>
       </c>
       <c r="E3" t="n">
-        <v>467.9713513592737</v>
+        <v>471.2574638593792</v>
       </c>
       <c r="F3" t="n">
-        <v>333.2775533091481</v>
+        <v>336.5636658092535</v>
       </c>
       <c r="G3" t="n">
         <v>207.8351658325381</v>
@@ -4410,16 +4410,16 @@
         <v>99.76916960240328</v>
       </c>
       <c r="K3" t="n">
-        <v>99.76916960240328</v>
+        <v>329.259722162592</v>
       </c>
       <c r="L3" t="n">
-        <v>465.5910147725189</v>
+        <v>329.259722162592</v>
       </c>
       <c r="M3" t="n">
-        <v>950.6243682827453</v>
+        <v>814.2930756728184</v>
       </c>
       <c r="N3" t="n">
-        <v>1123.683653619414</v>
+        <v>1303.29148615537</v>
       </c>
       <c r="O3" t="n">
         <v>1515.883604403565</v>
@@ -4431,28 +4431,28 @@
         <v>1975.751153464857</v>
       </c>
       <c r="R3" t="n">
-        <v>1915.966884559802</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="S3" t="n">
-        <v>1763.167397572543</v>
+        <v>1822.951666477597</v>
       </c>
       <c r="T3" t="n">
-        <v>1763.167397572543</v>
+        <v>1634.266562643582</v>
       </c>
       <c r="U3" t="n">
-        <v>1544.672605170853</v>
+        <v>1415.771770241892</v>
       </c>
       <c r="V3" t="n">
-        <v>1316.276982619187</v>
+        <v>1187.376147690226</v>
       </c>
       <c r="W3" t="n">
-        <v>1074.961113852497</v>
+        <v>1182.818893872312</v>
       </c>
       <c r="X3" t="n">
-        <v>1074.961113852497</v>
+        <v>984.9019057501065</v>
       </c>
       <c r="Y3" t="n">
-        <v>1074.961113852497</v>
+        <v>792.3805793996853</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>571.5742683152296</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="C4" t="n">
-        <v>495.0997269260259</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="D4" t="n">
-        <v>495.0997269260259</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="E4" t="n">
-        <v>343.0907126873448</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="F4" t="n">
-        <v>343.0907126873448</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="G4" t="n">
-        <v>343.0907126873448</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="H4" t="n">
-        <v>183.7180674666186</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="I4" t="n">
         <v>39.51502306929713</v>
@@ -4513,25 +4513,25 @@
         <v>571.5742683152296</v>
       </c>
       <c r="S4" t="n">
-        <v>571.5742683152296</v>
+        <v>357.8645057189171</v>
       </c>
       <c r="T4" t="n">
-        <v>571.5742683152296</v>
+        <v>357.8645057189171</v>
       </c>
       <c r="U4" t="n">
-        <v>571.5742683152296</v>
+        <v>357.8645057189171</v>
       </c>
       <c r="V4" t="n">
-        <v>571.5742683152296</v>
+        <v>325.671424551898</v>
       </c>
       <c r="W4" t="n">
-        <v>571.5742683152296</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="X4" t="n">
-        <v>571.5742683152296</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="Y4" t="n">
-        <v>571.5742683152296</v>
+        <v>39.51502306929713</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1304.342036166902</v>
+        <v>964.2873475184326</v>
       </c>
       <c r="C5" t="n">
-        <v>1304.342036166902</v>
+        <v>582.3535888512399</v>
       </c>
       <c r="D5" t="n">
-        <v>1042.587399096143</v>
+        <v>582.3535888512399</v>
       </c>
       <c r="E5" t="n">
-        <v>1042.587399096143</v>
+        <v>582.3535888512399</v>
       </c>
       <c r="F5" t="n">
-        <v>628.4362084063132</v>
+        <v>224.3958043659091</v>
       </c>
       <c r="G5" t="n">
         <v>212.3322218605011</v>
@@ -4565,19 +4565,19 @@
         <v>39.51502306929713</v>
       </c>
       <c r="J5" t="n">
-        <v>39.51502306929713</v>
+        <v>111.5135673421028</v>
       </c>
       <c r="K5" t="n">
-        <v>228.7015208236825</v>
+        <v>351.6539393868856</v>
       </c>
       <c r="L5" t="n">
-        <v>576.5868939086288</v>
+        <v>699.5393124718319</v>
       </c>
       <c r="M5" t="n">
-        <v>969.8260601617167</v>
+        <v>1092.77847872492</v>
       </c>
       <c r="N5" t="n">
-        <v>1348.157418849432</v>
+        <v>1471.109837412635</v>
       </c>
       <c r="O5" t="n">
         <v>1653.162003322266</v>
@@ -4589,28 +4589,28 @@
         <v>1975.751153464857</v>
       </c>
       <c r="R5" t="n">
-        <v>1885.11286696071</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.883891591064</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.883891591064</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.883891591064</v>
+        <v>1720.865817178851</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.883891591064</v>
+        <v>1720.865817178851</v>
       </c>
       <c r="W5" t="n">
-        <v>1697.883891591064</v>
+        <v>1358.330887036452</v>
       </c>
       <c r="X5" t="n">
-        <v>1697.883891591064</v>
+        <v>1358.330887036452</v>
       </c>
       <c r="Y5" t="n">
-        <v>1304.342036166902</v>
+        <v>1358.330887036452</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>495.8376955458551</v>
+        <v>655.4054855445002</v>
       </c>
       <c r="C6" t="n">
-        <v>495.8376955458551</v>
+        <v>493.7018127854548</v>
       </c>
       <c r="D6" t="n">
-        <v>371.3196064060772</v>
+        <v>354.8631757756669</v>
       </c>
       <c r="E6" t="n">
-        <v>371.3196064060772</v>
+        <v>207.8351658325381</v>
       </c>
       <c r="F6" t="n">
-        <v>236.6258083559516</v>
+        <v>207.8351658325381</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8973083792361</v>
+        <v>207.8351658325381</v>
       </c>
       <c r="H6" t="n">
         <v>107.8973083792361</v>
@@ -4644,25 +4644,25 @@
         <v>39.51502306929713</v>
       </c>
       <c r="J6" t="n">
-        <v>39.51502306929713</v>
+        <v>99.76916960240328</v>
       </c>
       <c r="K6" t="n">
-        <v>269.0055756294858</v>
+        <v>272.8284549390721</v>
       </c>
       <c r="L6" t="n">
-        <v>634.8274207996014</v>
+        <v>638.6503001091877</v>
       </c>
       <c r="M6" t="n">
-        <v>1119.860774309828</v>
+        <v>1123.683653619414</v>
       </c>
       <c r="N6" t="n">
-        <v>1608.85918479238</v>
+        <v>1123.683653619414</v>
       </c>
       <c r="O6" t="n">
-        <v>1975.751153464857</v>
+        <v>1515.883604403565</v>
       </c>
       <c r="P6" t="n">
-        <v>1975.751153464857</v>
+        <v>1817.979523679262</v>
       </c>
       <c r="Q6" t="n">
         <v>1975.751153464857</v>
@@ -4674,22 +4674,22 @@
         <v>1763.167397572543</v>
       </c>
       <c r="T6" t="n">
-        <v>1574.482293738528</v>
+        <v>1763.167397572543</v>
       </c>
       <c r="U6" t="n">
-        <v>1355.987501336838</v>
+        <v>1674.974734116744</v>
       </c>
       <c r="V6" t="n">
-        <v>1127.591878785172</v>
+        <v>1446.579111565078</v>
       </c>
       <c r="W6" t="n">
-        <v>886.2760100184818</v>
+        <v>1205.263242798388</v>
       </c>
       <c r="X6" t="n">
-        <v>688.3590218962763</v>
+        <v>1007.346254676182</v>
       </c>
       <c r="Y6" t="n">
-        <v>495.8376955458551</v>
+        <v>814.824928325761</v>
       </c>
     </row>
     <row r="7">
@@ -4753,16 +4753,16 @@
         <v>357.8645057189171</v>
       </c>
       <c r="T7" t="n">
-        <v>124.685552534596</v>
+        <v>357.8645057189171</v>
       </c>
       <c r="U7" t="n">
-        <v>124.685552534596</v>
+        <v>357.8645057189171</v>
       </c>
       <c r="V7" t="n">
-        <v>124.685552534596</v>
+        <v>357.8645057189171</v>
       </c>
       <c r="W7" t="n">
-        <v>39.51502306929713</v>
+        <v>270.7674871739214</v>
       </c>
       <c r="X7" t="n">
         <v>39.51502306929713</v>
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1377.917906530736</v>
+        <v>1291.565103973249</v>
       </c>
       <c r="C8" t="n">
-        <v>1377.917906530736</v>
+        <v>909.6313453060566</v>
       </c>
       <c r="D8" t="n">
-        <v>1377.917906530736</v>
+        <v>536.8073805332801</v>
       </c>
       <c r="E8" t="n">
-        <v>1377.917906530736</v>
+        <v>536.8073805332801</v>
       </c>
       <c r="F8" t="n">
-        <v>963.766715840906</v>
+        <v>226.9050373978112</v>
       </c>
       <c r="G8" t="n">
-        <v>547.662729295094</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H8" t="n">
         <v>214.8414548924032</v>
@@ -4829,25 +4829,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T8" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U8" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V8" t="n">
-        <v>1740.452836673135</v>
+        <v>1673.595244451756</v>
       </c>
       <c r="W8" t="n">
-        <v>1377.917906530736</v>
+        <v>1673.595244451756</v>
       </c>
       <c r="X8" t="n">
-        <v>1377.917906530736</v>
+        <v>1291.565103973249</v>
       </c>
       <c r="Y8" t="n">
-        <v>1377.917906530736</v>
+        <v>1291.565103973249</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>921.3370166032433</v>
+        <v>674.3711492068126</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>512.6674764477673</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>373.8288394379794</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>373.8288394379794</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>239.1350413878537</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H9" t="n">
         <v>110.4065414111382</v>
@@ -4881,52 +4881,52 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>44.796090196649</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>410.6179353667646</v>
+        <v>331.768955194494</v>
       </c>
       <c r="M9" t="n">
-        <v>895.6512888769911</v>
+        <v>816.8023087047204</v>
       </c>
       <c r="N9" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2061.398454651599</v>
       </c>
       <c r="S9" t="n">
-        <v>2101.212805059961</v>
+        <v>1908.59896766434</v>
       </c>
       <c r="T9" t="n">
-        <v>2101.212805059961</v>
+        <v>1719.913863830325</v>
       </c>
       <c r="U9" t="n">
-        <v>1940.906265175487</v>
+        <v>1501.419071428635</v>
       </c>
       <c r="V9" t="n">
-        <v>1712.510642623821</v>
+        <v>1273.023448876969</v>
       </c>
       <c r="W9" t="n">
-        <v>1471.194773857131</v>
+        <v>1031.707580110279</v>
       </c>
       <c r="X9" t="n">
-        <v>1273.277785734925</v>
+        <v>833.7905919880734</v>
       </c>
       <c r="Y9" t="n">
-        <v>1080.756459384504</v>
+        <v>833.7905919880734</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4981,31 +4981,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>535.5461600008207</v>
+        <v>486.3149292271564</v>
       </c>
       <c r="T10" t="n">
-        <v>535.5461600008207</v>
+        <v>486.3149292271564</v>
       </c>
       <c r="U10" t="n">
-        <v>535.5461600008207</v>
+        <v>486.3149292271564</v>
       </c>
       <c r="V10" t="n">
-        <v>535.5461600008207</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="W10" t="n">
-        <v>535.5461600008207</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="X10" t="n">
-        <v>507.6720221791293</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="Y10" t="n">
-        <v>285.6368633714063</v>
+        <v>225.5796247855791</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1306.887955586376</v>
+        <v>1006.168784419822</v>
       </c>
       <c r="C11" t="n">
-        <v>1306.887955586376</v>
+        <v>717.057710010239</v>
       </c>
       <c r="D11" t="n">
-        <v>1306.887955586376</v>
+        <v>717.057710010239</v>
       </c>
       <c r="E11" t="n">
-        <v>1004.924919950092</v>
+        <v>694.3750813289655</v>
       </c>
       <c r="F11" t="n">
-        <v>683.5964135178708</v>
+        <v>694.3750813289655</v>
       </c>
       <c r="G11" t="n">
-        <v>360.3151112296678</v>
+        <v>371.0937790407625</v>
       </c>
       <c r="H11" t="n">
         <v>131.0951888956807</v>
@@ -5045,22 +5045,22 @@
         <v>545.1906163614393</v>
       </c>
       <c r="L11" t="n">
-        <v>971.7775046281256</v>
+        <v>984.051502287268</v>
       </c>
       <c r="M11" t="n">
-        <v>1455.992183722096</v>
+        <v>1458.133111960265</v>
       </c>
       <c r="N11" t="n">
-        <v>1834.323542409812</v>
+        <v>1836.46447064798</v>
       </c>
       <c r="O11" t="n">
-        <v>2230.303639723528</v>
+        <v>2141.469055120814</v>
       </c>
       <c r="P11" t="n">
-        <v>2458.460536179582</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q11" t="n">
-        <v>2552.892789866119</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R11" t="n">
         <v>2555.033718104287</v>
@@ -5084,7 +5084,7 @@
         <v>1608.108810846786</v>
       </c>
       <c r="Y11" t="n">
-        <v>1608.108810846786</v>
+        <v>1307.389639680233</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C12" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D12" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E12" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F12" t="n">
         <v>348.1493171020421</v>
@@ -5118,7 +5118,7 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J12" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K12" t="n">
         <v>340.8453734553806</v>
@@ -5142,28 +5142,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R12" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S12" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T12" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U12" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V12" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W12" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X12" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y12" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>296.6209942277061</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="C13" t="n">
-        <v>219.8277089469952</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D13" t="n">
-        <v>186.3840687176989</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E13" t="n">
-        <v>127.1977387366267</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F13" t="n">
-        <v>127.1977387366267</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="G13" t="n">
         <v>51.10067436208574</v>
@@ -5197,22 +5197,22 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J13" t="n">
-        <v>83.214087664999</v>
+        <v>83.21408766499906</v>
       </c>
       <c r="K13" t="n">
-        <v>207.793788250525</v>
+        <v>207.7937882505249</v>
       </c>
       <c r="L13" t="n">
-        <v>399.3763804916671</v>
+        <v>399.376380491667</v>
       </c>
       <c r="M13" t="n">
-        <v>608.3453994601514</v>
+        <v>608.3453994601512</v>
       </c>
       <c r="N13" t="n">
         <v>817.7432540506343</v>
       </c>
       <c r="O13" t="n">
-        <v>1007.182413387207</v>
+        <v>1007.182413387206</v>
       </c>
       <c r="P13" t="n">
         <v>1161.126409956227</v>
@@ -5224,25 +5224,25 @@
         <v>1157.632377415577</v>
       </c>
       <c r="S13" t="n">
-        <v>1157.632377415577</v>
+        <v>1036.745299076874</v>
       </c>
       <c r="T13" t="n">
-        <v>1017.276108488865</v>
+        <v>896.3890301501618</v>
       </c>
       <c r="U13" t="n">
-        <v>822.9085532355741</v>
+        <v>702.0214748968707</v>
       </c>
       <c r="V13" t="n">
-        <v>654.995933051606</v>
+        <v>534.1088547129023</v>
       </c>
       <c r="W13" t="n">
-        <v>654.995933051606</v>
+        <v>340.7751374879103</v>
       </c>
       <c r="X13" t="n">
-        <v>516.5661532045908</v>
+        <v>202.3453576408951</v>
       </c>
       <c r="Y13" t="n">
-        <v>387.3536786544769</v>
+        <v>141.8333587888566</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1323.499085888936</v>
+        <v>1320.931896679061</v>
       </c>
       <c r="C14" t="n">
-        <v>1034.388011479353</v>
+        <v>1031.820822269477</v>
       </c>
       <c r="D14" t="n">
-        <v>754.3867309641854</v>
+        <v>916.3436024316545</v>
       </c>
       <c r="E14" t="n">
-        <v>452.4236953279013</v>
+        <v>614.3805667953704</v>
       </c>
       <c r="F14" t="n">
-        <v>131.0951888956807</v>
+        <v>614.3805667953704</v>
       </c>
       <c r="G14" t="n">
-        <v>131.0951888956807</v>
+        <v>291.0992645071674</v>
       </c>
       <c r="H14" t="n">
-        <v>131.0951888956807</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I14" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J14" t="n">
-        <v>123.0992186348914</v>
+        <v>214.074731475774</v>
       </c>
       <c r="K14" t="n">
-        <v>363.2395906796742</v>
+        <v>454.2151035205568</v>
       </c>
       <c r="L14" t="n">
-        <v>711.1249637646204</v>
+        <v>893.0759894463856</v>
       </c>
       <c r="M14" t="n">
-        <v>1195.339642858591</v>
+        <v>1286.315155699474</v>
       </c>
       <c r="N14" t="n">
-        <v>1664.646514387189</v>
+        <v>1755.622027228072</v>
       </c>
       <c r="O14" t="n">
-        <v>2060.626611700906</v>
+        <v>2151.602124541788</v>
       </c>
       <c r="P14" t="n">
-        <v>2379.759020997842</v>
+        <v>2458.460536179582</v>
       </c>
       <c r="Q14" t="n">
         <v>2552.892789866119</v>
@@ -5306,22 +5306,22 @@
         <v>2460.62742699225</v>
       </c>
       <c r="T14" t="n">
-        <v>2357.214010229086</v>
+        <v>2329.09116498087</v>
       </c>
       <c r="U14" t="n">
-        <v>2195.15135820069</v>
+        <v>2167.028512952473</v>
       </c>
       <c r="V14" t="n">
-        <v>2195.15135820069</v>
+        <v>1922.871923106024</v>
       </c>
       <c r="W14" t="n">
-        <v>1925.4391123159</v>
+        <v>1922.871923106024</v>
       </c>
       <c r="X14" t="n">
-        <v>1925.4391123159</v>
+        <v>1922.871923106024</v>
       </c>
       <c r="Y14" t="n">
-        <v>1624.719941149347</v>
+        <v>1622.152751939471</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>915.7008174040254</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C15" t="n">
-        <v>753.9971446449802</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D15" t="n">
-        <v>615.1585076351922</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E15" t="n">
-        <v>468.1304976920634</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F15" t="n">
-        <v>333.4366996419378</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G15" t="n">
-        <v>204.7081996652224</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H15" t="n">
-        <v>104.7703422119204</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I15" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J15" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K15" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L15" t="n">
         <v>706.6672186254962</v>
@@ -5379,22 +5379,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R15" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S15" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T15" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U15" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V15" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W15" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X15" t="n">
         <v>1267.641586535707</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>404.8963801627883</v>
+        <v>188.1431685574246</v>
       </c>
       <c r="C16" t="n">
-        <v>328.1030948820776</v>
+        <v>111.349883276714</v>
       </c>
       <c r="D16" t="n">
-        <v>267.8538859674494</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E16" t="n">
-        <v>208.6675559863772</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F16" t="n">
-        <v>149.0095852697634</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="G16" t="n">
-        <v>72.91252089522254</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H16" t="n">
-        <v>72.91252089522254</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I16" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J16" t="n">
-        <v>83.21408766499903</v>
+        <v>83.21408766499906</v>
       </c>
       <c r="K16" t="n">
-        <v>207.793788250525</v>
+        <v>207.7937882505251</v>
       </c>
       <c r="L16" t="n">
-        <v>399.3763804916671</v>
+        <v>399.3763804916672</v>
       </c>
       <c r="M16" t="n">
-        <v>608.3453994601515</v>
+        <v>608.3453994601516</v>
       </c>
       <c r="N16" t="n">
-        <v>817.7432540506345</v>
+        <v>817.7432540506346</v>
       </c>
       <c r="O16" t="n">
         <v>1007.182413387207</v>
@@ -5455,7 +5455,7 @@
         <v>1161.126409956227</v>
       </c>
       <c r="Q16" t="n">
-        <v>1214.331474543591</v>
+        <v>1214.33147454359</v>
       </c>
       <c r="R16" t="n">
         <v>1157.632377415578</v>
@@ -5464,22 +5464,22 @@
         <v>1036.745299076874</v>
       </c>
       <c r="T16" t="n">
-        <v>896.3890301501618</v>
+        <v>896.3890301501623</v>
       </c>
       <c r="U16" t="n">
-        <v>702.0214748968706</v>
+        <v>702.0214748968713</v>
       </c>
       <c r="V16" t="n">
-        <v>534.1088547129023</v>
+        <v>534.1088547129028</v>
       </c>
       <c r="W16" t="n">
-        <v>534.1088547129023</v>
+        <v>417.3056328312106</v>
       </c>
       <c r="X16" t="n">
-        <v>534.1088547129023</v>
+        <v>278.8758529841954</v>
       </c>
       <c r="Y16" t="n">
-        <v>404.8963801627883</v>
+        <v>278.8758529841954</v>
       </c>
     </row>
     <row r="17">
@@ -5519,22 +5519,22 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L17" t="n">
-        <v>711.1249637646204</v>
+        <v>875.5927382556528</v>
       </c>
       <c r="M17" t="n">
-        <v>1104.364130017708</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N17" t="n">
-        <v>1522.87124461848</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O17" t="n">
-        <v>1992.343603582346</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P17" t="n">
-        <v>2384.968274529432</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q17" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R17" t="n">
         <v>2555.033718104287</v>
@@ -5558,7 +5558,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y17" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C18" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D18" t="n">
         <v>629.8711250952965</v>
@@ -5592,7 +5592,7 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J18" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K18" t="n">
         <v>340.8453734553806</v>
@@ -5634,10 +5634,10 @@
         <v>1465.558574657912</v>
       </c>
       <c r="X18" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y18" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.90950739287318</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C19" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="D19" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="E19" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="F19" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="G19" t="n">
         <v>51.10067436208574</v>
       </c>
-      <c r="D19" t="n">
+      <c r="H19" t="n">
         <v>51.10067436208574</v>
       </c>
-      <c r="E19" t="n">
+      <c r="I19" t="n">
         <v>51.10067436208574</v>
       </c>
-      <c r="F19" t="n">
-        <v>66.12215891288227</v>
-      </c>
-      <c r="G19" t="n">
-        <v>65.00954678826454</v>
-      </c>
-      <c r="H19" t="n">
-        <v>73.27619169846319</v>
-      </c>
-      <c r="I19" t="n">
-        <v>96.20682289912145</v>
-      </c>
       <c r="J19" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K19" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L19" t="n">
-        <v>230.4180900440244</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M19" t="n">
-        <v>348.4115961716261</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N19" t="n">
-        <v>466.8339379212265</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O19" t="n">
-        <v>565.2975844169162</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P19" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q19" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R19" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S19" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T19" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U19" t="n">
-        <v>397.6085223761172</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V19" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W19" t="n">
-        <v>186.3310894670034</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X19" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="20">
@@ -5729,13 +5729,13 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C20" t="n">
-        <v>1147.761190413098</v>
+        <v>1147.761190413099</v>
       </c>
       <c r="D20" t="n">
-        <v>942.7443621478541</v>
+        <v>942.7443621478544</v>
       </c>
       <c r="E20" t="n">
-        <v>715.7657787614932</v>
+        <v>715.7657787614935</v>
       </c>
       <c r="F20" t="n">
         <v>469.4217245791957</v>
@@ -5756,22 +5756,22 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L20" t="n">
-        <v>751.3007196776763</v>
+        <v>875.5927382556528</v>
       </c>
       <c r="M20" t="n">
-        <v>1309.007660421797</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N20" t="n">
-        <v>1851.806793600545</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O20" t="n">
-        <v>2156.811378073378</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P20" t="n">
-        <v>2384.968274529432</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q20" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R20" t="n">
         <v>2555.033718104287</v>
@@ -5792,7 +5792,7 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X20" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y20" t="n">
         <v>1588.124215583246</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C21" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D21" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E21" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F21" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G21" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H21" t="n">
         <v>119.4829596720247</v>
@@ -5829,13 +5829,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J21" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K21" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L21" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M21" t="n">
         <v>1191.700572135723</v>
@@ -5853,28 +5853,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R21" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S21" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T21" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U21" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V21" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W21" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X21" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y21" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C22" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D22" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E22" t="n">
         <v>52.21328648670347</v>
@@ -5902,58 +5902,58 @@
         <v>51.10067436208574</v>
       </c>
       <c r="H22" t="n">
-        <v>56.26358779153714</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I22" t="n">
-        <v>79.39795846875474</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J22" t="n">
-        <v>79.39795846875474</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K22" t="n">
-        <v>113.0021462133981</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L22" t="n">
-        <v>213.6092256136577</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M22" t="n">
-        <v>331.6027317412594</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N22" t="n">
-        <v>450.0250734908598</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O22" t="n">
-        <v>548.4887199865494</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P22" t="n">
-        <v>611.4572037146872</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q22" t="n">
-        <v>611.4572037146872</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R22" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S22" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T22" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U22" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V22" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W22" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X22" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5969,10 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D23" t="n">
-        <v>942.7443621478541</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E23" t="n">
-        <v>715.7657787614932</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F23" t="n">
         <v>469.4217245791957</v>
@@ -5984,31 +5984,31 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I23" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J23" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K23" t="n">
-        <v>527.7073651707066</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L23" t="n">
-        <v>875.5927382556529</v>
+        <v>826.9339095659941</v>
       </c>
       <c r="M23" t="n">
-        <v>1268.831904508741</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N23" t="n">
-        <v>1647.163263196456</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O23" t="n">
-        <v>2116.635622160323</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P23" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.601464417749</v>
       </c>
       <c r="Q23" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R23" t="n">
         <v>2555.033718104287</v>
@@ -6032,7 +6032,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y23" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>915.700817404025</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C24" t="n">
-        <v>753.9971446449797</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D24" t="n">
-        <v>615.1585076351918</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E24" t="n">
-        <v>468.130497692063</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F24" t="n">
-        <v>333.4366996419374</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G24" t="n">
         <v>219.4208171253267</v>
@@ -6063,13 +6063,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I24" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J24" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K24" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L24" t="n">
         <v>706.6672186254962</v>
@@ -6090,28 +6090,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R24" t="n">
-        <v>2495.249449199232</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T24" t="n">
-        <v>2153.764858377958</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U24" t="n">
-        <v>1935.270065976268</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V24" t="n">
-        <v>1706.874443424602</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W24" t="n">
-        <v>1465.558574657912</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X24" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y24" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C25" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D25" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E25" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F25" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G25" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H25" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I25" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J25" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K25" t="n">
-        <v>84.70486210672915</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L25" t="n">
         <v>185.3119415069887</v>
@@ -6160,37 +6160,37 @@
         <v>421.7277893841908</v>
       </c>
       <c r="O25" t="n">
-        <v>566.4101965415339</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P25" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q25" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R25" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S25" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T25" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U25" t="n">
-        <v>398.7211345007349</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V25" t="n">
-        <v>305.7929665666898</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W25" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X25" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1638.39869009398</v>
+        <v>1638.398690093981</v>
       </c>
       <c r="C26" t="n">
-        <v>1386.425607044543</v>
+        <v>1386.425607044544</v>
       </c>
       <c r="D26" t="n">
         <v>1143.562317889523</v>
       </c>
       <c r="E26" t="n">
-        <v>878.737273613386</v>
+        <v>878.7372736133864</v>
       </c>
       <c r="F26" t="n">
-        <v>594.5467585413124</v>
+        <v>594.5467585413129</v>
       </c>
       <c r="G26" t="n">
-        <v>308.4034476132565</v>
+        <v>308.403447613257</v>
       </c>
       <c r="H26" t="n">
-        <v>105.5428488283222</v>
+        <v>105.5428488283223</v>
       </c>
       <c r="I26" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487437</v>
       </c>
       <c r="J26" t="n">
         <v>262.0593281006427</v>
@@ -6233,16 +6233,16 @@
         <v>1104.833989576297</v>
       </c>
       <c r="M26" t="n">
-        <v>1580.353483178478</v>
+        <v>1625.447614002348</v>
       </c>
       <c r="N26" t="n">
-        <v>2086.059300039156</v>
+        <v>2131.153430863027</v>
       </c>
       <c r="O26" t="n">
-        <v>2518.438342684953</v>
+        <v>2563.532473508823</v>
       </c>
       <c r="P26" t="n">
-        <v>2873.969697313969</v>
+        <v>2919.063828137839</v>
       </c>
       <c r="Q26" t="n">
         <v>3095.776409173469</v>
@@ -6251,25 +6251,25 @@
         <v>3134.316282743718</v>
       </c>
       <c r="S26" t="n">
-        <v>3077.047982991828</v>
+        <v>3077.047982991829</v>
       </c>
       <c r="T26" t="n">
-        <v>2982.649712340595</v>
+        <v>2982.649712340596</v>
       </c>
       <c r="U26" t="n">
-        <v>2857.725051672345</v>
+        <v>2857.725051672346</v>
       </c>
       <c r="V26" t="n">
-        <v>2650.706453186043</v>
+        <v>2650.706453186044</v>
       </c>
       <c r="W26" t="n">
-        <v>2418.1321986614</v>
+        <v>2418.132198661401</v>
       </c>
       <c r="X26" t="n">
-        <v>2166.062733800649</v>
+        <v>2166.06273380065</v>
       </c>
       <c r="Y26" t="n">
-        <v>1902.481553994243</v>
+        <v>1902.481553994244</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.9990861569185</v>
+        <v>927.2864686968139</v>
       </c>
       <c r="C27" t="n">
-        <v>780.2954133978732</v>
+        <v>765.5827959377687</v>
       </c>
       <c r="D27" t="n">
         <v>641.4567763880852</v>
@@ -6300,7 +6300,7 @@
         <v>131.0686109648134</v>
       </c>
       <c r="I27" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487437</v>
       </c>
       <c r="J27" t="n">
         <v>122.9404721879805</v>
@@ -6327,28 +6327,28 @@
         <v>2566.619369397076</v>
       </c>
       <c r="R27" t="n">
-        <v>2521.547717952126</v>
+        <v>2506.835100492021</v>
       </c>
       <c r="S27" t="n">
-        <v>2368.748230964866</v>
+        <v>2354.035613504762</v>
       </c>
       <c r="T27" t="n">
-        <v>2180.063127130852</v>
+        <v>2165.350509670747</v>
       </c>
       <c r="U27" t="n">
-        <v>1961.568334729162</v>
+        <v>1946.855717269057</v>
       </c>
       <c r="V27" t="n">
-        <v>1733.172712177496</v>
+        <v>1718.460094717391</v>
       </c>
       <c r="W27" t="n">
-        <v>1491.856843410806</v>
+        <v>1477.144225950701</v>
       </c>
       <c r="X27" t="n">
-        <v>1293.9398552886</v>
+        <v>1279.227237828496</v>
       </c>
       <c r="Y27" t="n">
-        <v>1101.418528938179</v>
+        <v>1086.705911478075</v>
       </c>
     </row>
     <row r="28">
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>252.6345665042402</v>
+        <v>252.6345665042404</v>
       </c>
       <c r="C28" t="n">
-        <v>212.9792725836766</v>
+        <v>212.9792725836768</v>
       </c>
       <c r="D28" t="n">
-        <v>189.8680550291955</v>
+        <v>189.8680550291956</v>
       </c>
       <c r="E28" t="n">
-        <v>167.8197164082704</v>
+        <v>167.8197164082706</v>
       </c>
       <c r="F28" t="n">
-        <v>145.2997370518037</v>
+        <v>145.2997370518038</v>
       </c>
       <c r="G28" t="n">
-        <v>106.3406640374098</v>
+        <v>106.3406640374099</v>
       </c>
       <c r="H28" t="n">
-        <v>76.92869443443972</v>
+        <v>76.92869443443976</v>
       </c>
       <c r="I28" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487437</v>
       </c>
       <c r="J28" t="n">
-        <v>131.1986842898678</v>
+        <v>62.68632565487437</v>
       </c>
       <c r="K28" t="n">
-        <v>164.8028720345112</v>
+        <v>180.1414782028756</v>
       </c>
       <c r="L28" t="n">
-        <v>392.7844096077334</v>
+        <v>280.7485576031352</v>
       </c>
       <c r="M28" t="n">
-        <v>510.7779157353352</v>
+        <v>526.1165219036997</v>
       </c>
       <c r="N28" t="n">
-        <v>756.5747156578983</v>
+        <v>771.9133218262627</v>
       </c>
       <c r="O28" t="n">
-        <v>982.4128203265508</v>
+        <v>870.3769683219524</v>
       </c>
       <c r="P28" t="n">
         <v>1060.719910223053</v>
@@ -6406,28 +6406,28 @@
         <v>1150.323920142496</v>
       </c>
       <c r="R28" t="n">
-        <v>1130.76281437463</v>
+        <v>1130.762814374631</v>
       </c>
       <c r="S28" t="n">
         <v>1047.013727396074</v>
       </c>
       <c r="T28" t="n">
-        <v>943.795449829509</v>
+        <v>943.7954498295093</v>
       </c>
       <c r="U28" t="n">
-        <v>786.565885936365</v>
+        <v>786.5658859363652</v>
       </c>
       <c r="V28" t="n">
-        <v>655.7912571125437</v>
+        <v>655.7912571125439</v>
       </c>
       <c r="W28" t="n">
-        <v>499.5955312476989</v>
+        <v>499.5955312476992</v>
       </c>
       <c r="X28" t="n">
-        <v>398.3037427608308</v>
+        <v>398.303742760831</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.229259570864</v>
+        <v>306.2292595708642</v>
       </c>
     </row>
     <row r="29">
@@ -6440,73 +6440,73 @@
         <v>1638.39869009398</v>
       </c>
       <c r="C29" t="n">
-        <v>1386.425607044543</v>
+        <v>1386.425607044544</v>
       </c>
       <c r="D29" t="n">
         <v>1143.562317889523</v>
       </c>
       <c r="E29" t="n">
-        <v>878.7372736133858</v>
+        <v>878.737273613386</v>
       </c>
       <c r="F29" t="n">
-        <v>594.5467585413122</v>
+        <v>594.5467585413124</v>
       </c>
       <c r="G29" t="n">
-        <v>308.4034476132563</v>
+        <v>308.4034476132565</v>
       </c>
       <c r="H29" t="n">
-        <v>105.5428488283222</v>
+        <v>105.5428488283223</v>
       </c>
       <c r="I29" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487437</v>
       </c>
       <c r="J29" t="n">
-        <v>262.0593281006428</v>
+        <v>262.0593281006427</v>
       </c>
       <c r="K29" t="n">
-        <v>584.4800274945177</v>
+        <v>629.5741583183883</v>
       </c>
       <c r="L29" t="n">
-        <v>1059.739858752427</v>
+        <v>1104.833989576297</v>
       </c>
       <c r="M29" t="n">
-        <v>1580.353483178477</v>
+        <v>1625.447614002348</v>
       </c>
       <c r="N29" t="n">
-        <v>2086.059300039156</v>
+        <v>2131.153430863027</v>
       </c>
       <c r="O29" t="n">
-        <v>2518.438342684953</v>
+        <v>2556.978216255202</v>
       </c>
       <c r="P29" t="n">
-        <v>2873.969697313968</v>
+        <v>2912.509570884218</v>
       </c>
       <c r="Q29" t="n">
-        <v>3095.776409173468</v>
+        <v>3134.316282743718</v>
       </c>
       <c r="R29" t="n">
-        <v>3134.316282743717</v>
+        <v>3134.316282743718</v>
       </c>
       <c r="S29" t="n">
-        <v>3077.047982991827</v>
+        <v>3077.047982991828</v>
       </c>
       <c r="T29" t="n">
-        <v>2982.649712340594</v>
+        <v>2982.649712340596</v>
       </c>
       <c r="U29" t="n">
-        <v>2857.725051672344</v>
+        <v>2857.725051672346</v>
       </c>
       <c r="V29" t="n">
-        <v>2650.706453186042</v>
+        <v>2650.706453186043</v>
       </c>
       <c r="W29" t="n">
-        <v>2418.132198661399</v>
+        <v>2418.1321986614</v>
       </c>
       <c r="X29" t="n">
-        <v>2166.062733800648</v>
+        <v>2166.06273380065</v>
       </c>
       <c r="Y29" t="n">
-        <v>1902.481553994242</v>
+        <v>1902.481553994244</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>131.0686109648134</v>
       </c>
       <c r="I30" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487437</v>
       </c>
       <c r="J30" t="n">
         <v>122.9404721879805</v>
       </c>
       <c r="K30" t="n">
-        <v>352.4310247481691</v>
+        <v>352.4310247481692</v>
       </c>
       <c r="L30" t="n">
-        <v>718.2528699182848</v>
+        <v>718.2528699182849</v>
       </c>
       <c r="M30" t="n">
         <v>1203.286223428511</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>252.63456650424</v>
+        <v>252.6345665042404</v>
       </c>
       <c r="C31" t="n">
-        <v>212.9792725836765</v>
+        <v>212.9792725836768</v>
       </c>
       <c r="D31" t="n">
-        <v>189.8680550291953</v>
+        <v>189.8680550291956</v>
       </c>
       <c r="E31" t="n">
-        <v>167.8197164082703</v>
+        <v>167.8197164082706</v>
       </c>
       <c r="F31" t="n">
-        <v>145.2997370518036</v>
+        <v>145.2997370518038</v>
       </c>
       <c r="G31" t="n">
-        <v>106.3406640374097</v>
+        <v>106.3406640374099</v>
       </c>
       <c r="H31" t="n">
-        <v>76.92869443443968</v>
+        <v>76.92869443443976</v>
       </c>
       <c r="I31" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487437</v>
       </c>
       <c r="J31" t="n">
         <v>131.1986842898678</v>
       </c>
       <c r="K31" t="n">
-        <v>292.177330207474</v>
+        <v>292.1773302074739</v>
       </c>
       <c r="L31" t="n">
-        <v>392.7844096077336</v>
+        <v>392.7844096077334</v>
       </c>
       <c r="M31" t="n">
-        <v>510.7779157353353</v>
+        <v>638.1523739082979</v>
       </c>
       <c r="N31" t="n">
-        <v>756.5747156578984</v>
+        <v>756.5747156578983</v>
       </c>
       <c r="O31" t="n">
-        <v>982.4128203265509</v>
+        <v>959.9809782413957</v>
       </c>
       <c r="P31" t="n">
-        <v>1060.719910223052</v>
+        <v>1150.323920142496</v>
       </c>
       <c r="Q31" t="n">
         <v>1150.323920142496</v>
       </c>
       <c r="R31" t="n">
-        <v>1130.76281437463</v>
+        <v>1130.762814374631</v>
       </c>
       <c r="S31" t="n">
         <v>1047.013727396074</v>
       </c>
       <c r="T31" t="n">
-        <v>943.7954498295086</v>
+        <v>943.7954498295093</v>
       </c>
       <c r="U31" t="n">
-        <v>786.5658859363646</v>
+        <v>786.5658859363652</v>
       </c>
       <c r="V31" t="n">
-        <v>655.7912571125433</v>
+        <v>655.7912571125439</v>
       </c>
       <c r="W31" t="n">
-        <v>499.5955312476986</v>
+        <v>499.5955312476992</v>
       </c>
       <c r="X31" t="n">
-        <v>398.3037427608305</v>
+        <v>398.303742760831</v>
       </c>
       <c r="Y31" t="n">
-        <v>306.2292595708637</v>
+        <v>306.2292595708642</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1578.511661732583</v>
+        <v>1578.511661732584</v>
       </c>
       <c r="C32" t="n">
-        <v>1334.73540658736</v>
+        <v>1334.735406587361</v>
       </c>
       <c r="D32" t="n">
         <v>1100.068945336554</v>
       </c>
       <c r="E32" t="n">
-        <v>843.4407289646301</v>
+        <v>843.4407289646304</v>
       </c>
       <c r="F32" t="n">
-        <v>567.4470417967701</v>
+        <v>567.4470417967702</v>
       </c>
       <c r="G32" t="n">
-        <v>289.5005587729277</v>
+        <v>289.5005587729278</v>
       </c>
       <c r="H32" t="n">
-        <v>94.83678789220662</v>
+        <v>94.83678789220667</v>
       </c>
       <c r="I32" t="n">
-        <v>60.17709262297225</v>
+        <v>60.17709262297227</v>
       </c>
       <c r="J32" t="n">
-        <v>132.1756368957779</v>
+        <v>267.5838060976603</v>
       </c>
       <c r="K32" t="n">
-        <v>402.7823986969756</v>
+        <v>643.1323473443254</v>
       </c>
       <c r="L32" t="n">
-        <v>886.0759409838042</v>
+        <v>1126.425889631154</v>
       </c>
       <c r="M32" t="n">
-        <v>1414.723276438775</v>
+        <v>1655.073225086124</v>
       </c>
       <c r="N32" t="n">
-        <v>1928.462804328373</v>
+        <v>2168.812752975723</v>
       </c>
       <c r="O32" t="n">
-        <v>2368.875558003089</v>
+        <v>2609.225506650439</v>
       </c>
       <c r="P32" t="n">
-        <v>2732.440623661025</v>
+        <v>2867.848792862908</v>
       </c>
       <c r="Q32" t="n">
-        <v>2962.281046549444</v>
+        <v>2962.281046549445</v>
       </c>
       <c r="R32" t="n">
-        <v>3008.854631148612</v>
+        <v>3008.854631148613</v>
       </c>
       <c r="S32" t="n">
-        <v>2959.783159300936</v>
+        <v>2959.783159300937</v>
       </c>
       <c r="T32" t="n">
-        <v>2873.581716553917</v>
+        <v>2873.581716553918</v>
       </c>
       <c r="U32" t="n">
-        <v>2756.853883789881</v>
+        <v>2756.853883789882</v>
       </c>
       <c r="V32" t="n">
         <v>2558.032113207792</v>
       </c>
       <c r="W32" t="n">
-        <v>2333.654686587362</v>
+        <v>2333.654686587363</v>
       </c>
       <c r="X32" t="n">
-        <v>2089.782049630825</v>
+        <v>2089.782049630826</v>
       </c>
       <c r="Y32" t="n">
-        <v>1834.397697728633</v>
+        <v>1834.397697728634</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>939.4898531250163</v>
+        <v>924.7772356649118</v>
       </c>
       <c r="C33" t="n">
-        <v>777.7861803659711</v>
+        <v>763.0735629058665</v>
       </c>
       <c r="D33" t="n">
-        <v>638.9475433561831</v>
+        <v>624.2349258960786</v>
       </c>
       <c r="E33" t="n">
         <v>491.9195334130543</v>
@@ -6774,7 +6774,7 @@
         <v>128.5593779329113</v>
       </c>
       <c r="I33" t="n">
-        <v>60.17709262297225</v>
+        <v>60.17709262297227</v>
       </c>
       <c r="J33" t="n">
         <v>120.4312391560784</v>
@@ -6801,28 +6801,28 @@
         <v>2564.110136365174</v>
       </c>
       <c r="R33" t="n">
-        <v>2519.038484920224</v>
+        <v>2504.325867460119</v>
       </c>
       <c r="S33" t="n">
-        <v>2366.238997932964</v>
+        <v>2351.52638047286</v>
       </c>
       <c r="T33" t="n">
-        <v>2177.55389409895</v>
+        <v>2162.841276638845</v>
       </c>
       <c r="U33" t="n">
-        <v>1959.05910169726</v>
+        <v>1944.346484237155</v>
       </c>
       <c r="V33" t="n">
-        <v>1730.663479145594</v>
+        <v>1715.950861685489</v>
       </c>
       <c r="W33" t="n">
-        <v>1489.347610378904</v>
+        <v>1474.634992918799</v>
       </c>
       <c r="X33" t="n">
-        <v>1291.430622256698</v>
+        <v>1276.718004796594</v>
       </c>
       <c r="Y33" t="n">
-        <v>1098.909295906277</v>
+        <v>1084.196678446173</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>192.7475381428434</v>
+        <v>192.7475381428439</v>
       </c>
       <c r="C34" t="n">
-        <v>161.2890721264934</v>
+        <v>161.2890721264937</v>
       </c>
       <c r="D34" t="n">
-        <v>146.3746824762258</v>
+        <v>146.3746824762261</v>
       </c>
       <c r="E34" t="n">
-        <v>132.5231717595142</v>
+        <v>132.5231717595145</v>
       </c>
       <c r="F34" t="n">
-        <v>118.200020307261</v>
+        <v>118.2000203072612</v>
       </c>
       <c r="G34" t="n">
-        <v>87.43777519708063</v>
+        <v>87.43777519708077</v>
       </c>
       <c r="H34" t="n">
-        <v>66.22263349832409</v>
+        <v>66.22263349832417</v>
       </c>
       <c r="I34" t="n">
-        <v>60.17709262297225</v>
+        <v>60.17709262297227</v>
       </c>
       <c r="J34" t="n">
-        <v>136.7231622868854</v>
+        <v>116.1521360451182</v>
       </c>
       <c r="K34" t="n">
-        <v>170.3273500315288</v>
+        <v>285.164492991644</v>
       </c>
       <c r="L34" t="n">
-        <v>406.3425986336707</v>
+        <v>385.7715723919035</v>
       </c>
       <c r="M34" t="n">
-        <v>659.7442739631549</v>
+        <v>639.1732477213876</v>
       </c>
       <c r="N34" t="n">
-        <v>778.1666157127553</v>
+        <v>757.595589470988</v>
       </c>
       <c r="O34" t="n">
-        <v>876.6302622084449</v>
+        <v>856.0592359666776</v>
       </c>
       <c r="P34" t="n">
-        <v>939.5987459365828</v>
+        <v>919.0277196948155</v>
       </c>
       <c r="Q34" t="n">
         <v>1016.665440643178</v>
       </c>
       <c r="R34" t="n">
-        <v>1005.301162779525</v>
+        <v>1005.301162779526</v>
       </c>
       <c r="S34" t="n">
-        <v>929.7489037051827</v>
+        <v>929.7489037051835</v>
       </c>
       <c r="T34" t="n">
-        <v>834.7274540428311</v>
+        <v>834.7274540428319</v>
       </c>
       <c r="U34" t="n">
-        <v>685.6947180539006</v>
+        <v>685.6947180539014</v>
       </c>
       <c r="V34" t="n">
-        <v>563.1169171342929</v>
+        <v>563.1169171342935</v>
       </c>
       <c r="W34" t="n">
-        <v>415.1180191736615</v>
+        <v>415.1180191736622</v>
       </c>
       <c r="X34" t="n">
-        <v>322.0230585910069</v>
+        <v>322.0230585910075</v>
       </c>
       <c r="Y34" t="n">
-        <v>238.1454033052536</v>
+        <v>238.1454033052541</v>
       </c>
     </row>
     <row r="35">
@@ -6914,58 +6914,58 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C35" t="n">
-        <v>1147.761190413098</v>
+        <v>1147.761190413099</v>
       </c>
       <c r="D35" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478543</v>
       </c>
       <c r="E35" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614934</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791959</v>
       </c>
       <c r="G35" t="n">
-        <v>221.1248745409159</v>
+        <v>221.1248745409162</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575748</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J35" t="n">
-        <v>123.0992186348914</v>
+        <v>238.9081644362662</v>
       </c>
       <c r="K35" t="n">
-        <v>363.2395906796742</v>
+        <v>643.5163109720813</v>
       </c>
       <c r="L35" t="n">
-        <v>711.1249637646204</v>
+        <v>991.4016840570275</v>
       </c>
       <c r="M35" t="n">
-        <v>1104.364130017708</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N35" t="n">
-        <v>1482.695488705424</v>
+        <v>1762.972208997831</v>
       </c>
       <c r="O35" t="n">
-        <v>1827.875829091314</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P35" t="n">
-        <v>2220.500500038399</v>
+        <v>2460.601464417751</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104288</v>
       </c>
       <c r="R35" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104288</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.611879242173</v>
+        <v>2535.611879242174</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480718</v>
       </c>
       <c r="U35" t="n">
         <v>2391.981869702243</v>
@@ -6977,10 +6977,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y35" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C36" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D36" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E36" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F36" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G36" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720247</v>
+        <v>119.4829596720248</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
@@ -7044,22 +7044,22 @@
         <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U36" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V36" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W36" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X36" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="37">
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.90950739287318</v>
+        <v>52.90950739287319</v>
       </c>
       <c r="C37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54268635500837</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="E37" t="n">
-        <v>81.02642599070934</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="F37" t="n">
-        <v>81.02642599070934</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="G37" t="n">
-        <v>79.91381386609162</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="H37" t="n">
-        <v>88.18045877629027</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="I37" t="n">
-        <v>88.18045877629027</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J37" t="n">
-        <v>88.18045877629027</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="K37" t="n">
-        <v>121.7846465209337</v>
+        <v>84.70486210672917</v>
       </c>
       <c r="L37" t="n">
-        <v>222.3917259211932</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>340.3852320487949</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N37" t="n">
-        <v>458.8075737983953</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O37" t="n">
-        <v>557.271220294085</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P37" t="n">
-        <v>620.2397040222228</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q37" t="n">
-        <v>620.2397040222228</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R37" t="n">
         <v>628.266068145054</v>
@@ -7181,19 +7181,19 @@
         <v>875.5927382556528</v>
       </c>
       <c r="M38" t="n">
-        <v>1433.299678999773</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N38" t="n">
-        <v>1927.439983488862</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O38" t="n">
-        <v>2232.444567961696</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P38" t="n">
-        <v>2460.601464417749</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q38" t="n">
-        <v>2555.033718104286</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7242,7 +7242,7 @@
         <v>333.4366996419378</v>
       </c>
       <c r="G39" t="n">
-        <v>204.7081996652224</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H39" t="n">
         <v>119.4829596720247</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D40" t="n">
         <v>52.21328648670345</v>
@@ -7330,52 +7330,52 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208573</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K40" t="n">
-        <v>84.70486210672914</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L40" t="n">
-        <v>185.3119415069887</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M40" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N40" t="n">
-        <v>421.7277893841908</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O40" t="n">
-        <v>520.1914358798805</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P40" t="n">
-        <v>583.1599196080183</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>611.4572037146872</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007348</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666896</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W40" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="41">
@@ -7415,19 +7415,19 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>875.5927382556528</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M41" t="n">
-        <v>1433.299678999773</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N41" t="n">
-        <v>1811.631037687489</v>
+        <v>1598.504434506798</v>
       </c>
       <c r="O41" t="n">
-        <v>2116.635622160323</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P41" t="n">
-        <v>2344.792518616376</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q41" t="n">
         <v>2555.033718104287</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C42" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D42" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E42" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F42" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G42" t="n">
-        <v>204.7081996652224</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H42" t="n">
-        <v>104.7703422119204</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
         <v>51.10067436208574</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S42" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U42" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V42" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X42" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y42" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="43">
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D43" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E43" t="n">
         <v>52.21328648670347</v>
@@ -7567,52 +7567,52 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J43" t="n">
-        <v>97.31943502373917</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K43" t="n">
-        <v>130.9236227683826</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L43" t="n">
-        <v>231.5307021686421</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M43" t="n">
-        <v>349.5242082962438</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9465500458442</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O43" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P43" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q43" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R43" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S43" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T43" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U43" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W43" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X43" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="44">
@@ -7640,34 +7640,34 @@
         <v>221.124874540916</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575749</v>
+        <v>56.11073664575752</v>
       </c>
       <c r="I44" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259237</v>
       </c>
       <c r="K44" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707065</v>
       </c>
       <c r="L44" t="n">
-        <v>711.1249637646204</v>
+        <v>875.5927382556526</v>
       </c>
       <c r="M44" t="n">
-        <v>1104.364130017708</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N44" t="n">
-        <v>1482.695488705424</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O44" t="n">
-        <v>1827.875829091314</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P44" t="n">
-        <v>2220.500500038399</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q44" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7688,7 +7688,7 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X44" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y44" t="n">
         <v>1588.124215583246</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C45" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D45" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E45" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F45" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G45" t="n">
-        <v>204.7081996652224</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H45" t="n">
-        <v>104.7703422119204</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I45" t="n">
         <v>51.10067436208574</v>
@@ -7755,22 +7755,22 @@
         <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U45" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V45" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W45" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X45" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y45" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.02211951749096</v>
+        <v>52.90950739287324</v>
       </c>
       <c r="C46" t="n">
-        <v>52.2132864867035</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D46" t="n">
-        <v>52.2132864867035</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E46" t="n">
-        <v>52.2132864867035</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F46" t="n">
-        <v>52.2132864867035</v>
+        <v>56.26358779153794</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208574</v>
+        <v>55.15097566692015</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208574</v>
+        <v>55.15097566692015</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208574</v>
+        <v>78.28534634413769</v>
       </c>
       <c r="J46" t="n">
-        <v>97.31943502373952</v>
+        <v>78.28534634413769</v>
       </c>
       <c r="K46" t="n">
-        <v>130.9236227683829</v>
+        <v>111.8895340887811</v>
       </c>
       <c r="L46" t="n">
-        <v>231.5307021686424</v>
+        <v>212.4966134890406</v>
       </c>
       <c r="M46" t="n">
-        <v>349.5242082962442</v>
+        <v>330.4901196166423</v>
       </c>
       <c r="N46" t="n">
-        <v>467.9465500458446</v>
+        <v>448.9124613662427</v>
       </c>
       <c r="O46" t="n">
-        <v>566.4101965415342</v>
+        <v>547.3761078619324</v>
       </c>
       <c r="P46" t="n">
-        <v>629.378680269672</v>
+        <v>610.3445915900702</v>
       </c>
       <c r="Q46" t="n">
-        <v>629.378680269672</v>
+        <v>610.3445915900702</v>
       </c>
       <c r="R46" t="n">
-        <v>629.378680269672</v>
+        <v>628.2660681450546</v>
       </c>
       <c r="S46" t="n">
-        <v>583.4760541808919</v>
+        <v>582.3634420562744</v>
       </c>
       <c r="T46" t="n">
-        <v>518.1042375041029</v>
+        <v>516.9916253794854</v>
       </c>
       <c r="U46" t="n">
-        <v>398.721134500735</v>
+        <v>397.6085223761174</v>
       </c>
       <c r="V46" t="n">
-        <v>305.7929665666899</v>
+        <v>304.6803544420723</v>
       </c>
       <c r="W46" t="n">
-        <v>187.4437015916212</v>
+        <v>186.3310894670036</v>
       </c>
       <c r="X46" t="n">
-        <v>123.9983739945292</v>
+        <v>122.8857618699116</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.77035169433856</v>
+        <v>68.65773956972086</v>
       </c>
     </row>
   </sheetData>
@@ -7991,13 +7991,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>466.2319882914013</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>418.3383206229274</v>
+        <v>294.1439584378739</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8058,19 +8058,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>281.5224999936364</v>
+        <v>600.6529294339225</v>
       </c>
       <c r="O3" t="n">
-        <v>512.0210150597484</v>
+        <v>330.5989619931258</v>
       </c>
       <c r="P3" t="n">
         <v>414.0015992319183</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>369.9204764532239</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
@@ -8228,7 +8228,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
-        <v>495.0402356415689</v>
+        <v>370.8458734565154</v>
       </c>
       <c r="P5" t="n">
         <v>418.3383206229274</v>
@@ -8292,10 +8292,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>343.8048081163522</v>
+        <v>286.8035280925948</v>
       </c>
       <c r="L6" t="n">
         <v>482.0924488944969</v>
@@ -8304,16 +8304,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>600.6529294339225</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
-        <v>486.4573967651279</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8529,19 +8529,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>114.7960015863129</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>623.1450866466196</v>
+        <v>543.4252385523532</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -8550,7 +8550,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8766,10 +8766,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>343.8048081163523</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466193</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9240,10 +9240,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>343.8048081163523</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9492,7 +9492,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
-        <v>512.0210150597484</v>
+        <v>512.021015059748</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
@@ -9732,7 +9732,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319179</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>286.2199636654878</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>277.2012677100158</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>276.4876028854605</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>318.1152213678985</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>10.67088113298374</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>297.7119794548875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>76.0253524279036</v>
       </c>
       <c r="D13" t="n">
-        <v>26.53751299847865</v>
+        <v>59.64671682548199</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>58.59446668126144</v>
       </c>
       <c r="F13" t="n">
         <v>59.06139100944775</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>75.33609373079558</v>
       </c>
       <c r="H13" t="n">
         <v>65.884461353486</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>119.6782075553164</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>191.400380052742</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>68.01347094109448</v>
       </c>
     </row>
     <row r="14">
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>162.8788200705715</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>318.1152213678984</v>
       </c>
       <c r="G14" t="n">
-        <v>320.0484892653209</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>237.5986042436309</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>79.194569388259</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>27.84161679573378</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.7150239479851</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>267.015123425942</v>
       </c>
       <c r="X14" t="n">
         <v>286.3153816586886</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.82535758250309</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>58.59446668126139</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>59.0613910094477</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>75.33609373079554</v>
       </c>
       <c r="H16" t="n">
-        <v>65.88446135348597</v>
+        <v>65.88446135348596</v>
       </c>
       <c r="I16" t="n">
-        <v>29.27282847050989</v>
+        <v>50.86655653831531</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>191.4003800527419</v>
+        <v>75.7651903898666</v>
       </c>
       <c r="X16" t="n">
-        <v>137.0454820485451</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>127.9203498046127</v>
       </c>
     </row>
     <row r="17">
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>307049.6241976725</v>
+      </c>
+      <c r="C2" t="n">
         <v>307049.6241976727</v>
-      </c>
-      <c r="C2" t="n">
-        <v>307049.6241976726</v>
       </c>
       <c r="D2" t="n">
         <v>307049.6241976726</v>
       </c>
       <c r="E2" t="n">
+        <v>266666.2618557801</v>
+      </c>
+      <c r="F2" t="n">
         <v>266666.2618557804</v>
-      </c>
-      <c r="F2" t="n">
-        <v>266666.2618557805</v>
       </c>
       <c r="G2" t="n">
         <v>307049.6241976727</v>
@@ -26332,16 +26332,16 @@
         <v>307049.6241976728</v>
       </c>
       <c r="I2" t="n">
+        <v>307049.6241976727</v>
+      </c>
+      <c r="J2" t="n">
         <v>307049.6241976728</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>307049.6241976726</v>
       </c>
-      <c r="K2" t="n">
-        <v>307049.6241976727</v>
-      </c>
       <c r="L2" t="n">
-        <v>307049.6241976724</v>
+        <v>307049.6241976721</v>
       </c>
       <c r="M2" t="n">
         <v>307049.6241976728</v>
@@ -26350,10 +26350,10 @@
         <v>307049.6241976726</v>
       </c>
       <c r="O2" t="n">
-        <v>307049.6241976726</v>
+        <v>307049.6241976725</v>
       </c>
       <c r="P2" t="n">
-        <v>307049.6241976726</v>
+        <v>307049.6241976724</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>107390.8010757635</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>59387.68618193921</v>
+        <v>59387.68618193919</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>210668.4794422432</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>65879.57388207632</v>
+        <v>65879.57388207631</v>
       </c>
       <c r="M3" t="n">
-        <v>23482.5093245656</v>
+        <v>23482.50932456565</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>43541.1689073236</v>
+        <v>43541.16890732358</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>118181.7253353294</v>
       </c>
       <c r="F4" t="n">
-        <v>118181.7253353294</v>
+        <v>118181.7253353295</v>
       </c>
       <c r="G4" t="n">
         <v>175623.1205402357</v>
@@ -26436,7 +26436,7 @@
         <v>175623.1205402357</v>
       </c>
       <c r="I4" t="n">
-        <v>175623.1205402357</v>
+        <v>175623.1205402356</v>
       </c>
       <c r="J4" t="n">
         <v>176368.812935792</v>
@@ -26454,10 +26454,10 @@
         <v>175623.1205402357</v>
       </c>
       <c r="O4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
       <c r="P4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>46561.98765560956</v>
       </c>
       <c r="F5" t="n">
-        <v>46561.98765560956</v>
+        <v>46561.98765560957</v>
       </c>
       <c r="G5" t="n">
         <v>52802.81689264637</v>
@@ -26494,13 +26494,13 @@
         <v>58458.01489582856</v>
       </c>
       <c r="K5" t="n">
-        <v>58458.01489582855</v>
+        <v>58458.01489582856</v>
       </c>
       <c r="L5" t="n">
-        <v>57233.20592541149</v>
+        <v>57233.2059254115</v>
       </c>
       <c r="M5" t="n">
-        <v>52802.81689264637</v>
+        <v>52802.81689264638</v>
       </c>
       <c r="N5" t="n">
         <v>52802.81689264637</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-116368.339845994</v>
+        <v>-116368.3398459942</v>
       </c>
       <c r="C6" t="n">
-        <v>49161.57360465669</v>
+        <v>49161.57360465678</v>
       </c>
       <c r="D6" t="n">
         <v>45964.7920187212</v>
       </c>
       <c r="E6" t="n">
-        <v>-5468.252210922052</v>
+        <v>-5720.648225559113</v>
       </c>
       <c r="F6" t="n">
-        <v>101922.5488648415</v>
+        <v>101670.1528502045</v>
       </c>
       <c r="G6" t="n">
         <v>19236.00058285147</v>
       </c>
       <c r="H6" t="n">
-        <v>78623.68676479079</v>
+        <v>78623.68676479073</v>
       </c>
       <c r="I6" t="n">
-        <v>78623.68676479076</v>
+        <v>78623.68676479071</v>
       </c>
       <c r="J6" t="n">
-        <v>-138445.6830761911</v>
+        <v>-138445.683076191</v>
       </c>
       <c r="K6" t="n">
-        <v>72222.79636605215</v>
+        <v>72222.796366052</v>
       </c>
       <c r="L6" t="n">
-        <v>7736.02785878384</v>
+        <v>7736.027858783651</v>
       </c>
       <c r="M6" t="n">
-        <v>55141.1774402252</v>
+        <v>55141.1774402251</v>
       </c>
       <c r="N6" t="n">
         <v>78623.68676479062</v>
       </c>
       <c r="O6" t="n">
-        <v>35082.51785746703</v>
+        <v>35082.51785746694</v>
       </c>
       <c r="P6" t="n">
-        <v>78623.68676479065</v>
+        <v>78623.68676479039</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>91.8944574150329</v>
       </c>
       <c r="F2" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="G2" t="n">
         <v>166.1290651424569</v>
@@ -26710,7 +26710,7 @@
         <v>128.6610688615785</v>
       </c>
       <c r="K2" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="L2" t="n">
         <v>136.7759284867499</v>
@@ -26799,7 +26799,7 @@
         <v>638.7584295260717</v>
       </c>
       <c r="F4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="G4" t="n">
         <v>638.7584295260717</v>
@@ -26808,19 +26808,19 @@
         <v>638.7584295260717</v>
       </c>
       <c r="I4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="J4" t="n">
-        <v>783.5790706859294</v>
+        <v>783.5790706859295</v>
       </c>
       <c r="K4" t="n">
-        <v>783.5790706859293</v>
+        <v>783.5790706859295</v>
       </c>
       <c r="L4" t="n">
-        <v>752.2136577871531</v>
+        <v>752.2136577871534</v>
       </c>
       <c r="M4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.758429526072</v>
       </c>
       <c r="N4" t="n">
         <v>638.7584295260716</v>
@@ -26917,10 +26917,10 @@
         <v>91.8944574150329</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>74.23460772742401</v>
+        <v>74.23460772742399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>54.42646113415451</v>
+        <v>54.42646113415448</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>82.3494673525954</v>
+        <v>82.34946735259538</v>
       </c>
       <c r="M2" t="n">
-        <v>29.353136655707</v>
+        <v>29.35313665570706</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415451</v>
+        <v>54.42646113415448</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260718</v>
+        <v>638.758429526072</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>91.8944574150329</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>74.23460772742401</v>
+        <v>74.23460772742399</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415451</v>
+        <v>54.42646113415448</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
@@ -27388,13 +27388,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>138.8127739105577</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>218.2752847040452</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27461,16 +27461,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.253251375104412</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,13 +27518,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>234.3910287992882</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,13 +27537,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>92.21001386762491</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
         <v>150.9558484244806</v>
@@ -27552,10 +27552,10 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27585,7 +27585,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>230.8471636524779</v>
@@ -27594,10 +27594,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>226.2568010418127</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>109.9586344249973</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>55.63147214245384</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>329.4930616586638</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27692,25 +27692,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>14.17734239130994</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27746,10 +27746,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>128.9991076564322</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
@@ -27834,10 +27834,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>198.976013297129</v>
+        <v>197.0687891082291</v>
       </c>
       <c r="X7" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -27853,22 +27853,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>103.2063590788171</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27910,13 +27910,13 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>251.5457019151146</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27938,7 +27938,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27947,7 +27947,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>19.77021931172543</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -28032,7 +28032,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>124.6817785715738</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
@@ -28068,16 +28068,16 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>201.3445430201035</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -28117,25 +28117,25 @@
         <v>91.8944574150329</v>
       </c>
       <c r="L11" t="n">
-        <v>79.49647998155564</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="M11" t="n">
+        <v>81.65903375748348</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>91.8944574150329</v>
       </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>91.8944574150329</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>91.8944574150329</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
         <v>91.8944574150329</v>
@@ -28178,7 +28178,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>14.56549128550374</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="C14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="D14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="E14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="F14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="G14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="H14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="I14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="M14" t="n">
-        <v>91.89445741503293</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="O14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="P14" t="n">
-        <v>91.89445741503293</v>
+        <v>79.49647998155564</v>
       </c>
       <c r="Q14" t="n">
-        <v>79.49647998155555</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="S14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="T14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="U14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="V14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="W14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="X14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
     </row>
     <row r="15">
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>14.56549128550325</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="C16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="D16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="E16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="F16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="G16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="H16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="I16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="J16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="K16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="L16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="M16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="N16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="O16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="P16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="R16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="S16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="T16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="U16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="V16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="W16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="X16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503295</v>
       </c>
     </row>
     <row r="17">
@@ -28591,25 +28591,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>116.978733132701</v>
       </c>
       <c r="N17" t="n">
-        <v>40.58157162934924</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="P17" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
       <c r="R17" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
         <v>166.1290651424569</v>
@@ -28646,7 +28646,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>14.5654912855037</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28706,7 +28706,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>14.5654912855039</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28731,16 +28731,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H19" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I19" t="n">
-        <v>165.9232676913869</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J19" t="n">
         <v>59.456666199969</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>46.68561682995298</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28828,25 +28828,25 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>40.58157162934941</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>116.9787331327008</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="N20" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
       <c r="R20" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
         <v>166.1290651424569</v>
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28965,7 +28965,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>151.6127747272213</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
@@ -28974,10 +28974,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H22" t="n">
-        <v>162.9939828386718</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I22" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J22" t="n">
         <v>59.456666199969</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.15196793284785</v>
+        <v>65.61123256118242</v>
       </c>
       <c r="R22" t="n">
         <v>166.1290651424569</v>
@@ -29059,31 +29059,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>116.9787331327007</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
       <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="P23" t="n">
-        <v>40.58157162934964</v>
-      </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>166.1290651424569</v>
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29202,7 +29202,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>151.6127747272213</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -29232,10 +29232,10 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>46.68561682995295</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>45.56176619902594</v>
       </c>
       <c r="Q25" t="n">
         <v>38.15196793284785</v>
@@ -29305,7 +29305,7 @@
         <v>128.6610688615785</v>
       </c>
       <c r="M26" t="n">
-        <v>83.11144176676021</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="N26" t="n">
         <v>128.6610688615785</v>
@@ -29317,7 +29317,7 @@
         <v>128.6610688615785</v>
       </c>
       <c r="Q26" t="n">
-        <v>128.6610688615785</v>
+        <v>83.11144176676075</v>
       </c>
       <c r="R26" t="n">
         <v>128.6610688615785</v>
@@ -29357,7 +29357,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>14.56549128550347</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29454,25 +29454,25 @@
         <v>128.6610688615785</v>
       </c>
       <c r="J28" t="n">
+        <v>59.456666199969</v>
+      </c>
+      <c r="K28" t="n">
+        <v>84.69794424581603</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
         <v>128.6610688615785</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>128.6610688615785</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>128.6610688615785</v>
       </c>
       <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
         <v>128.6610688615785</v>
-      </c>
-      <c r="P28" t="n">
-        <v>15.49354158420617</v>
       </c>
       <c r="Q28" t="n">
         <v>128.6610688615785</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="C29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="D29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="E29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="F29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="G29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="H29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="J29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="K29" t="n">
-        <v>83.11144176675973</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="L29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="M29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="N29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="O29" t="n">
-        <v>128.6610688615786</v>
+        <v>122.0406069892341</v>
       </c>
       <c r="P29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="Q29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="R29" t="n">
-        <v>128.6610688615786</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="T29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="U29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="V29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="W29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="X29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="Y29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="C31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="D31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="E31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="F31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="G31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="H31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="I31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="J31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="K31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="N31" t="n">
-        <v>128.6610688615786</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>128.6610688615786</v>
+        <v>106.0026425129371</v>
       </c>
       <c r="P31" t="n">
-        <v>15.4935415842056</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.6610688615786</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="S31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="T31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="U31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="V31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="W31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="X31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615785</v>
       </c>
     </row>
     <row r="32">
@@ -29770,10 +29770,10 @@
         <v>136.7759284867499</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="K32" t="n">
-        <v>30.77413106708573</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="L32" t="n">
         <v>136.7759284867499</v>
@@ -29788,10 +29788,10 @@
         <v>136.7759284867499</v>
       </c>
       <c r="P32" t="n">
-        <v>136.7759284867499</v>
+        <v>30.77413106708701</v>
       </c>
       <c r="Q32" t="n">
-        <v>136.7759284867499</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>136.7759284867499</v>
@@ -29834,7 +29834,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>14.56549128550341</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29928,13 +29928,13 @@
         <v>136.7759284867499</v>
       </c>
       <c r="J34" t="n">
+        <v>115.9971141011265</v>
+      </c>
+      <c r="K34" t="n">
         <v>136.7759284867499</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>136.7759284867499</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>136.7759284867499</v>
@@ -29949,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>115.9971141011256</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="R34" t="n">
         <v>136.7759284867499</v>
@@ -30007,10 +30007,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>116.9787331327018</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30022,16 +30022,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>40.58157162934941</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="P35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30080,7 +30080,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>14.56549128550328</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30116,7 +30116,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30147,19 +30147,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>166.1290651424569</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
         <v>142.7610139533483</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>45.56176619902595</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>156.1340020796758</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
         <v>166.1290651424569</v>
@@ -30253,22 +30253,22 @@
         <v>166.1290651424569</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="N38" t="n">
-        <v>116.9787331327005</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>40.58157162934918</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30314,10 +30314,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="H39" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30384,7 +30384,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>152.6650248714419</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
@@ -30402,7 +30402,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
-        <v>59.456666199969</v>
+        <v>105.018432398995</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.73508319210941</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S40" t="n">
         <v>166.1290651424569</v>
@@ -30487,22 +30487,22 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>116.9787331327009</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M41" t="n">
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>116.9787331327008</v>
       </c>
       <c r="R41" t="n">
         <v>89.73190363910518</v>
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30624,7 +30624,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>151.6127747272213</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
@@ -30639,13 +30639,13 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
-        <v>106.142283029922</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>45.56176619902601</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30718,7 +30718,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30733,16 +30733,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>40.58157162934941</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>166.1290651424569</v>
+        <v>116.9787331327013</v>
       </c>
       <c r="Q44" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="R44" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>166.1290651424569</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30827,7 +30827,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>14.56549128550355</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30864,7 +30864,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>156.1709124946344</v>
       </c>
       <c r="G46" t="n">
         <v>166.1290651424569</v>
@@ -30873,10 +30873,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1422830299223</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S46" t="n">
         <v>166.1290651424569</v>
@@ -34711,13 +34711,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>279.2771915112808</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>230.4615115717709</v>
+        <v>106.2671493867174</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>174.8073589259281</v>
+        <v>493.9377883662141</v>
       </c>
       <c r="O3" t="n">
-        <v>396.1615664486372</v>
+        <v>214.7395133820147</v>
       </c>
       <c r="P3" t="n">
         <v>305.147393207775</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>191.0974724791772</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
@@ -34948,7 +34948,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
-        <v>308.0854388614484</v>
+        <v>183.8910766763949</v>
       </c>
       <c r="P5" t="n">
         <v>230.4615115717709</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>231.8086389496855</v>
+        <v>174.8073589259281</v>
       </c>
       <c r="L6" t="n">
         <v>369.5170153233491</v>
@@ -35024,16 +35024,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>493.9377883662141</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>370.5979481540168</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>2.799832419646239</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>516.4299455789112</v>
+        <v>436.7100974846449</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
@@ -35270,7 +35270,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>334.4604897835003</v>
       </c>
       <c r="L11" t="n">
-        <v>430.8958467340266</v>
+        <v>443.2938241675038</v>
       </c>
       <c r="M11" t="n">
-        <v>489.1057364585561</v>
+        <v>478.8703128010067</v>
       </c>
       <c r="N11" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>399.9798962764813</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>230.4615115717709</v>
+        <v>322.3559689868038</v>
       </c>
       <c r="Q11" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
-        <v>2.162553775927719</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
-        <v>231.8086389496855</v>
+        <v>231.8086389496856</v>
       </c>
       <c r="L12" t="n">
         <v>369.5170153233491</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>72.72580229576329</v>
+        <v>164.6202597107962</v>
       </c>
       <c r="K14" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
-        <v>351.3993667524709</v>
+        <v>443.2938241675039</v>
       </c>
       <c r="M14" t="n">
-        <v>489.1057364585561</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
         <v>474.0473449783822</v>
@@ -35662,13 +35662,13 @@
         <v>399.9798962764814</v>
       </c>
       <c r="P14" t="n">
-        <v>322.3559689868039</v>
+        <v>309.9579915533266</v>
       </c>
       <c r="Q14" t="n">
-        <v>174.8825948164414</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
-        <v>2.162553775927748</v>
+        <v>2.162553775927762</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N15" t="n">
-        <v>516.4299455789112</v>
+        <v>516.4299455789111</v>
       </c>
       <c r="O15" t="n">
         <v>396.1615664486372</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.43779121506393</v>
+        <v>32.43779121506395</v>
       </c>
       <c r="K16" t="n">
         <v>125.8380813995212</v>
@@ -35823,7 +35823,7 @@
         <v>155.4989864333539</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.74248948218508</v>
+        <v>53.74248948218509</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M17" t="n">
-        <v>397.2112790435232</v>
+        <v>514.1900121762242</v>
       </c>
       <c r="N17" t="n">
-        <v>422.7344591926985</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R17" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
-        <v>231.8086389496855</v>
+        <v>231.8086389496856</v>
       </c>
       <c r="L18" t="n">
         <v>369.5170153233491</v>
@@ -36027,16 +36027,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>23.16225373803864</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M19" t="n">
-        <v>119.1853597248502</v>
+        <v>165.8709765548032</v>
       </c>
       <c r="N19" t="n">
         <v>119.6185270197983</v>
@@ -36124,25 +36124,25 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
-        <v>391.9809383818204</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M20" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
-        <v>308.0854388614484</v>
+        <v>425.0641719941493</v>
       </c>
       <c r="P20" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R20" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
         <v>231.8086389496855</v>
@@ -36212,7 +36212,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O21" t="n">
-        <v>396.1615664486372</v>
+        <v>396.161566448637</v>
       </c>
       <c r="P21" t="n">
         <v>305.147393207775</v>
@@ -36261,7 +36261,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -36270,10 +36270,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>5.21506407015293</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -36297,7 +36297,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>27.45926462833456</v>
       </c>
       <c r="R22" t="n">
         <v>18.10250157069137</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>351.3993667524709</v>
+        <v>468.3780998851717</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O23" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P23" t="n">
-        <v>271.0430832011206</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q23" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>305.1473932077745</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
         <v>159.3652826117113</v>
@@ -36498,7 +36498,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -36528,10 +36528,10 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O25" t="n">
-        <v>146.1438456134779</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P25" t="n">
-        <v>63.604529018321</v>
+        <v>109.1662952173469</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>371.2271012300459</v>
       </c>
       <c r="L26" t="n">
-        <v>480.0604356140495</v>
+        <v>480.0604356140494</v>
       </c>
       <c r="M26" t="n">
-        <v>480.3227208102834</v>
+        <v>525.8723479051017</v>
       </c>
       <c r="N26" t="n">
-        <v>510.8139564249278</v>
+        <v>510.8139564249277</v>
       </c>
       <c r="O26" t="n">
         <v>436.746507723027</v>
       </c>
       <c r="P26" t="n">
-        <v>359.1225804333495</v>
+        <v>359.1225804333494</v>
       </c>
       <c r="Q26" t="n">
-        <v>224.0471836964644</v>
+        <v>178.4975566016466</v>
       </c>
       <c r="R26" t="n">
-        <v>38.92916522247336</v>
+        <v>38.92916522247333</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.20440266160955</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>33.9436239844883</v>
+        <v>118.6415682303043</v>
       </c>
       <c r="L28" t="n">
-        <v>230.2843813870932</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M28" t="n">
-        <v>119.1853597248502</v>
+        <v>247.8464285864287</v>
       </c>
       <c r="N28" t="n">
-        <v>248.2795958813769</v>
+        <v>248.2795958813768</v>
       </c>
       <c r="O28" t="n">
-        <v>228.1192976451035</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P28" t="n">
-        <v>79.09807060252717</v>
+        <v>192.2655978798995</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.50910092873069</v>
+        <v>90.50910092873066</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>201.3868711573419</v>
+        <v>201.3868711573418</v>
       </c>
       <c r="K29" t="n">
-        <v>325.6774741352272</v>
+        <v>371.2271012300459</v>
       </c>
       <c r="L29" t="n">
-        <v>480.0604356140495</v>
+        <v>480.0604356140494</v>
       </c>
       <c r="M29" t="n">
         <v>525.8723479051017</v>
       </c>
       <c r="N29" t="n">
-        <v>510.8139564249278</v>
+        <v>510.8139564249277</v>
       </c>
       <c r="O29" t="n">
-        <v>436.746507723027</v>
+        <v>430.1260458506825</v>
       </c>
       <c r="P29" t="n">
-        <v>359.1225804333495</v>
+        <v>359.1225804333494</v>
       </c>
       <c r="Q29" t="n">
         <v>224.0471836964644</v>
       </c>
       <c r="R29" t="n">
-        <v>38.92916522247339</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.20440266160958</v>
+        <v>69.20440266160952</v>
       </c>
       <c r="K31" t="n">
-        <v>162.6046928460669</v>
+        <v>162.6046928460668</v>
       </c>
       <c r="L31" t="n">
         <v>101.6233125255146</v>
       </c>
       <c r="M31" t="n">
-        <v>119.1853597248502</v>
+        <v>247.8464285864287</v>
       </c>
       <c r="N31" t="n">
-        <v>248.2795958813769</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O31" t="n">
-        <v>228.1192976451035</v>
+        <v>205.460871296462</v>
       </c>
       <c r="P31" t="n">
-        <v>79.0980706025266</v>
+        <v>192.2655978798995</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.50910092873072</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>72.72580229576329</v>
+        <v>209.5017307825132</v>
       </c>
       <c r="K32" t="n">
-        <v>273.3401634355532</v>
+        <v>379.3419608552173</v>
       </c>
       <c r="L32" t="n">
-        <v>488.1752952392209</v>
+        <v>488.1752952392208</v>
       </c>
       <c r="M32" t="n">
         <v>533.9872075302731</v>
@@ -37081,16 +37081,16 @@
         <v>518.9288160500992</v>
       </c>
       <c r="O32" t="n">
-        <v>444.8613673481984</v>
+        <v>444.8613673481983</v>
       </c>
       <c r="P32" t="n">
-        <v>367.2374400585209</v>
+        <v>261.2356426388579</v>
       </c>
       <c r="Q32" t="n">
-        <v>232.1620433216358</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R32" t="n">
-        <v>47.04402484764475</v>
+        <v>47.04402484764469</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.31926228678094</v>
+        <v>56.54044790115753</v>
       </c>
       <c r="K34" t="n">
-        <v>33.9436239844883</v>
+        <v>170.7195524712382</v>
       </c>
       <c r="L34" t="n">
-        <v>238.3992410122646</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
-        <v>255.9612882116002</v>
+        <v>255.9612882116001</v>
       </c>
       <c r="N34" t="n">
         <v>119.6185270197983</v>
@@ -37245,7 +37245,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>77.84514616827772</v>
+        <v>98.62396055390202</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.72580229576329</v>
+        <v>189.7045354284651</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L35" t="n">
         <v>351.3993667524709</v>
@@ -37318,16 +37318,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>348.6670104907978</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P35" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37443,19 +37443,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>15.6401410461626</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O37" t="n">
-        <v>99.45822878352493</v>
+        <v>145.0199949825509</v>
       </c>
       <c r="P37" t="n">
         <v>63.604529018321</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>8.107438507910286</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37549,22 +37549,22 @@
         <v>517.5284318949278</v>
       </c>
       <c r="M38" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>499.1316206960497</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P38" t="n">
-        <v>230.4615115717709</v>
+        <v>271.0430832011201</v>
       </c>
       <c r="Q38" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37680,7 +37680,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>45.56176619902598</v>
       </c>
       <c r="K40" t="n">
         <v>33.9436239844883</v>
@@ -37719,10 +37719,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.58311525926155</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37783,22 +37783,22 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M41" t="n">
-        <v>563.3403441859801</v>
+        <v>514.1900121762241</v>
       </c>
       <c r="N41" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P41" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3648479675866</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37920,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>46.68561682995296</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L43" t="n">
-        <v>101.6233125255146</v>
+        <v>147.1850787245407</v>
       </c>
       <c r="M43" t="n">
         <v>119.1853597248502</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K44" t="n">
         <v>242.5660323684674</v>
@@ -38029,16 +38029,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>348.6670104907978</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>396.5905767142278</v>
+        <v>347.4402447044723</v>
       </c>
       <c r="Q44" t="n">
         <v>261.5151799773428</v>
       </c>
       <c r="R44" t="n">
-        <v>76.39716150335173</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>5.215064070153733</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38169,10 +38169,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>23.36805118910863</v>
       </c>
       <c r="J46" t="n">
-        <v>46.68561682995331</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>33.9436239844883</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.10250157069132</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
